--- a/App/platforms/android/assets/www/js/Lista_de_Bens.xlsx
+++ b/App/platforms/android/assets/www/js/Lista_de_Bens.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+  <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225"/>
   </bookViews>
@@ -13475,10 +13475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Plan1"/>
   <dimension ref="A1:D2545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -49121,6 +49122,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>